--- a/FURI_Spring/FURI_Spring/FURI_Data/w_1.xlsx
+++ b/FURI_Spring/FURI_Spring/FURI_Data/w_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke_\Documents\GitHub\FURI\FURI_Spring\FURI_Spring\FURI_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8B6491-5F86-4B64-AE98-513FC0183DF4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DE306FF5-0861-4DF3-9F7C-C91772F8AC2B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10827"/>
   </bookViews>
@@ -584,6 +584,2889 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Homogeneous</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scattering Hash Families Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>newData!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>newData!$A$2:$A$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-320F-4B45-8E82-282C78DCBAD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>newData!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>newData!$B$2:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-320F-4B45-8E82-282C78DCBAD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>newData!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>newData!$C$2:$C$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-320F-4B45-8E82-282C78DCBAD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>newData!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scattering Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>newData!$F$2:$F$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-320F-4B45-8E82-282C78DCBAD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="679339576"/>
+        <c:axId val="679340560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="679339576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679340560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="679340560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679339576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>491067</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3809CFF-82B1-4E28-88AD-D4287BCAD85D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -883,9 +3766,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G118" workbookViewId="0">
+      <selection activeCell="D99" sqref="A1:G151"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="6" max="6" width="14.41015625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -2396,10 +5284,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>200</v>
@@ -2410,16 +5298,16 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2442,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2459,13 +5347,13 @@
         <v>17</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2488,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2505,13 +5393,13 @@
         <v>17</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2534,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2548,16 +5436,16 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2580,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2597,13 +5485,13 @@
         <v>18</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2626,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2643,13 +5531,13 @@
         <v>18</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2672,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2686,16 +5574,16 @@
         <v>6</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2718,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2735,13 +5623,13 @@
         <v>19</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2764,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2781,13 +5669,13 @@
         <v>19</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2810,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2824,16 +5712,16 @@
         <v>6</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2856,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2873,13 +5761,13 @@
         <v>20</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2902,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2919,13 +5807,13 @@
         <v>20</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2948,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2959,19 +5847,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B91">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2994,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3011,13 +5899,13 @@
         <v>16</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3040,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3057,7 +5945,7 @@
         <v>16</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3077,10 +5965,10 @@
         <v>7</v>
       </c>
       <c r="B96">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -3089,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="F96">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>200</v>
@@ -3100,10 +5988,10 @@
         <v>7</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3126,7 +6014,7 @@
         <v>17</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3149,7 +6037,7 @@
         <v>17</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3172,13 +6060,13 @@
         <v>17</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3192,16 +6080,16 @@
         <v>7</v>
       </c>
       <c r="B101">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3215,19 +6103,19 @@
         <v>7</v>
       </c>
       <c r="B102">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F102">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>200</v>
@@ -3238,16 +6126,16 @@
         <v>7</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3264,13 +6152,13 @@
         <v>18</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3287,7 +6175,7 @@
         <v>18</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3307,10 +6195,10 @@
         <v>7</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3330,10 +6218,10 @@
         <v>7</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -3353,10 +6241,10 @@
         <v>7</v>
       </c>
       <c r="B108">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3365,7 +6253,7 @@
         <v>3</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>200</v>
@@ -3376,10 +6264,10 @@
         <v>7</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -3402,13 +6290,13 @@
         <v>19</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3422,7 +6310,7 @@
         <v>7</v>
       </c>
       <c r="B111">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -3431,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3445,16 +6333,16 @@
         <v>7</v>
       </c>
       <c r="B112">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3468,7 +6356,7 @@
         <v>7</v>
       </c>
       <c r="B113">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -3477,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3491,19 +6379,19 @@
         <v>7</v>
       </c>
       <c r="B114">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F114">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>200</v>
@@ -3514,7 +6402,7 @@
         <v>7</v>
       </c>
       <c r="B115">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -3534,10 +6422,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B116">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -3557,10 +6445,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B117">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -3580,10 +6468,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -3592,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3603,13 +6491,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B119">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3626,13 +6514,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B120">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3641,7 +6529,7 @@
         <v>3</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>200</v>
@@ -3649,13 +6537,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B121">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3675,10 +6563,10 @@
         <v>8</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3698,10 +6586,10 @@
         <v>8</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3721,19 +6609,19 @@
         <v>8</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124">
         <v>200</v>
@@ -3744,16 +6632,16 @@
         <v>8</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3767,19 +6655,19 @@
         <v>8</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F126">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <v>200</v>
@@ -3790,16 +6678,16 @@
         <v>8</v>
       </c>
       <c r="B127">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3813,16 +6701,16 @@
         <v>8</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3836,10 +6724,10 @@
         <v>8</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3859,10 +6747,10 @@
         <v>8</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3882,10 +6770,10 @@
         <v>8</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -3905,10 +6793,10 @@
         <v>8</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3917,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="F132">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>200</v>
@@ -3928,10 +6816,10 @@
         <v>8</v>
       </c>
       <c r="B133">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3951,16 +6839,16 @@
         <v>8</v>
       </c>
       <c r="B134">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3974,7 +6862,7 @@
         <v>8</v>
       </c>
       <c r="B135">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -3983,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3997,16 +6885,16 @@
         <v>8</v>
       </c>
       <c r="B136">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4020,7 +6908,7 @@
         <v>8</v>
       </c>
       <c r="B137">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -4029,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4043,19 +6931,19 @@
         <v>8</v>
       </c>
       <c r="B138">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F138">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>200</v>
@@ -4066,7 +6954,7 @@
         <v>8</v>
       </c>
       <c r="B139">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -4089,10 +6977,10 @@
         <v>8</v>
       </c>
       <c r="B140">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4101,7 +6989,7 @@
         <v>3</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>200</v>
@@ -4109,22 +6997,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B141">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G141">
         <v>200</v>
@@ -4132,13 +7020,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142">
         <v>19</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4147,7 +7035,7 @@
         <v>3</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G142">
         <v>200</v>
@@ -4155,22 +7043,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A143">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B143">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G143">
         <v>200</v>
@@ -4178,22 +7066,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>18</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
         <v>8</v>
-      </c>
-      <c r="B144">
-        <v>19</v>
-      </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>3</v>
-      </c>
-      <c r="F144">
-        <v>23</v>
       </c>
       <c r="G144">
         <v>200</v>
@@ -4204,7 +7092,7 @@
         <v>8</v>
       </c>
       <c r="B145">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -4213,10 +7101,10 @@
         <v>1</v>
       </c>
       <c r="E145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G145">
         <v>200</v>
@@ -4224,13 +7112,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A146">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B146">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -4239,7 +7127,7 @@
         <v>3</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G146">
         <v>200</v>
@@ -4250,19 +7138,19 @@
         <v>8</v>
       </c>
       <c r="B147">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G147">
         <v>200</v>
@@ -4270,13 +7158,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -4285,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>200</v>
@@ -4296,19 +7184,19 @@
         <v>8</v>
       </c>
       <c r="B149">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G149">
         <v>200</v>
@@ -4319,7 +7207,7 @@
         <v>8</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C150">
         <v>5</v>
@@ -4331,7 +7219,7 @@
         <v>3</v>
       </c>
       <c r="F150">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G150">
         <v>200</v>
@@ -4342,7 +7230,7 @@
         <v>8</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -4351,16 +7239,25 @@
         <v>1</v>
       </c>
       <c r="E151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G151">
         <v>200</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G151">
+    <sortCondition ref="F2:F151"/>
+    <sortCondition ref="A2:A151"/>
+    <sortCondition ref="B2:B151"/>
+    <sortCondition ref="C2:C151"/>
+    <sortCondition ref="D2:D151"/>
+    <sortCondition ref="E2:E151"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>